--- a/sites/all/modules/reports/reports_drivers/blank_1.xlsx
+++ b/sites/all/modules/reports/reports_drivers/blank_1.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="570" windowWidth="28455" windowHeight="11700"/>
+    <workbookView xWindow="330" yWindow="600" windowWidth="20775" windowHeight="7365"/>
   </bookViews>
   <sheets>
-    <sheet name="stat" sheetId="1" r:id="rId1"/>
+    <sheet name="Minimalistic demo" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -28,7 +28,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF3366CC"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -55,9 +55,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -359,26 +365,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.42578125" customWidth="1"/>
-    <col min="6" max="6" width="38.140625" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
     <col min="9" max="9" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
